--- a/SEMANA1.xlsx
+++ b/SEMANA1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Python\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\JesusGzz\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD751C7F-9AD5-4AB4-BC43-766CFE51CEA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC3CBE7-07E5-42E8-8384-C601E917A818}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{316DB459-B0D0-4309-8E39-D735D0F492C7}"/>
+    <workbookView xWindow="22440" yWindow="-3090" windowWidth="22245" windowHeight="14055" xr2:uid="{316DB459-B0D0-4309-8E39-D735D0F492C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="41">
   <si>
     <t>ALDILLA LIMPIA</t>
   </si>
@@ -156,22 +156,16 @@
     <t>producto</t>
   </si>
   <si>
-    <t>19/abr/2021</t>
-  </si>
-  <si>
     <t>MOLIDA COMERCIAL PREMIUM</t>
-  </si>
-  <si>
-    <t>18/abr/2021</t>
-  </si>
-  <si>
-    <t>17/abr/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="dd\-mm\-yy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,16 +304,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826C10BD-CBF2-4DB9-A762-BA7383E445AD}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,8 +653,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>40</v>
+      <c r="A2" s="9">
+        <v>44305</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -670,8 +664,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>40</v>
+      <c r="A3" s="9">
+        <v>44305</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -681,8 +675,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>40</v>
+      <c r="A4" s="9">
+        <v>44305</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -692,8 +686,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>40</v>
+      <c r="A5" s="9">
+        <v>44305</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -703,8 +697,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>40</v>
+      <c r="A6" s="9">
+        <v>44305</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -714,8 +708,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>40</v>
+      <c r="A7" s="9">
+        <v>44305</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -725,8 +719,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>40</v>
+      <c r="A8" s="9">
+        <v>44305</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -736,8 +730,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>40</v>
+      <c r="A9" s="9">
+        <v>44305</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -747,8 +741,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>40</v>
+      <c r="A10" s="9">
+        <v>44305</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -758,8 +752,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>40</v>
+      <c r="A11" s="9">
+        <v>44305</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -769,8 +763,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>40</v>
+      <c r="A12" s="9">
+        <v>44305</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -780,8 +774,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>40</v>
+      <c r="A13" s="9">
+        <v>44305</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -791,8 +785,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>40</v>
+      <c r="A14" s="9">
+        <v>44305</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -802,8 +796,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>40</v>
+      <c r="A15" s="9">
+        <v>44305</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -813,8 +807,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>40</v>
+      <c r="A16" s="9">
+        <v>44305</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
@@ -824,8 +818,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>40</v>
+      <c r="A17" s="9">
+        <v>44305</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
@@ -835,8 +829,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>40</v>
+      <c r="A18" s="9">
+        <v>44305</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -846,8 +840,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>40</v>
+      <c r="A19" s="9">
+        <v>44305</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -857,8 +851,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>40</v>
+      <c r="A20" s="9">
+        <v>44305</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
@@ -868,8 +862,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>40</v>
+      <c r="A21" s="9">
+        <v>44305</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
@@ -879,8 +873,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>40</v>
+      <c r="A22" s="9">
+        <v>44305</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
@@ -890,8 +884,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>40</v>
+      <c r="A23" s="9">
+        <v>44305</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -901,8 +895,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>40</v>
+      <c r="A24" s="9">
+        <v>44305</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -912,8 +906,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>40</v>
+      <c r="A25" s="9">
+        <v>44305</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -923,8 +917,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>40</v>
+      <c r="A26" s="9">
+        <v>44305</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -934,8 +928,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>40</v>
+      <c r="A27" s="9">
+        <v>44305</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
@@ -945,8 +939,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>40</v>
+      <c r="A28" s="9">
+        <v>44305</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
@@ -956,19 +950,19 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9">
+        <v>44305</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>5570.3199999999952</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>40</v>
+      <c r="A30" s="9">
+        <v>44305</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>27</v>
@@ -978,8 +972,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>40</v>
+      <c r="A31" s="9">
+        <v>44305</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>28</v>
@@ -989,8 +983,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>40</v>
+      <c r="A32" s="9">
+        <v>44305</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
@@ -1000,8 +994,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>40</v>
+      <c r="A33" s="9">
+        <v>44305</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>30</v>
@@ -1011,8 +1005,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>40</v>
+      <c r="A34" s="9">
+        <v>44305</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>31</v>
@@ -1022,8 +1016,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>40</v>
+      <c r="A35" s="9">
+        <v>44305</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>32</v>
@@ -1033,8 +1027,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>40</v>
+      <c r="A36" s="9">
+        <v>44305</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>33</v>
@@ -1044,8 +1038,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>40</v>
+      <c r="A37" s="9">
+        <v>44305</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>34</v>
@@ -1055,8 +1049,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>40</v>
+      <c r="A38" s="9">
+        <v>44305</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>35</v>
@@ -1066,8 +1060,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>40</v>
+      <c r="A39" s="9">
+        <v>44305</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>36</v>
@@ -1077,8 +1071,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>42</v>
+      <c r="A40" s="10">
+        <v>44304</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>0</v>
@@ -1088,8 +1082,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>42</v>
+      <c r="A41" s="10">
+        <v>44304</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>1</v>
@@ -1099,8 +1093,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>42</v>
+      <c r="A42" s="10">
+        <v>44304</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>2</v>
@@ -1110,8 +1104,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>42</v>
+      <c r="A43" s="10">
+        <v>44304</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>3</v>
@@ -1121,8 +1115,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>42</v>
+      <c r="A44" s="10">
+        <v>44304</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>4</v>
@@ -1132,8 +1126,8 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>42</v>
+      <c r="A45" s="10">
+        <v>44304</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>5</v>
@@ -1143,8 +1137,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>42</v>
+      <c r="A46" s="10">
+        <v>44304</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>6</v>
@@ -1154,8 +1148,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>42</v>
+      <c r="A47" s="10">
+        <v>44304</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>7</v>
@@ -1165,8 +1159,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>42</v>
+      <c r="A48" s="10">
+        <v>44304</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>8</v>
@@ -1176,8 +1170,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>42</v>
+      <c r="A49" s="10">
+        <v>44304</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>9</v>
@@ -1187,8 +1181,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>42</v>
+      <c r="A50" s="10">
+        <v>44304</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>10</v>
@@ -1198,8 +1192,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>42</v>
+      <c r="A51" s="10">
+        <v>44304</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>11</v>
@@ -1209,8 +1203,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>42</v>
+      <c r="A52" s="10">
+        <v>44304</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>12</v>
@@ -1220,8 +1214,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>42</v>
+      <c r="A53" s="10">
+        <v>44304</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>13</v>
@@ -1231,8 +1225,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>42</v>
+      <c r="A54" s="10">
+        <v>44304</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>14</v>
@@ -1242,8 +1236,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>42</v>
+      <c r="A55" s="10">
+        <v>44304</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>15</v>
@@ -1253,8 +1247,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>42</v>
+      <c r="A56" s="10">
+        <v>44304</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>16</v>
@@ -1264,8 +1258,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>42</v>
+      <c r="A57" s="10">
+        <v>44304</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>17</v>
@@ -1275,8 +1269,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>42</v>
+      <c r="A58" s="10">
+        <v>44304</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>18</v>
@@ -1286,8 +1280,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>42</v>
+      <c r="A59" s="10">
+        <v>44304</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>19</v>
@@ -1297,8 +1291,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>42</v>
+      <c r="A60" s="10">
+        <v>44304</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>20</v>
@@ -1308,8 +1302,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>42</v>
+      <c r="A61" s="10">
+        <v>44304</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>21</v>
@@ -1319,8 +1313,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>42</v>
+      <c r="A62" s="10">
+        <v>44304</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>22</v>
@@ -1331,8 +1325,8 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>42</v>
+      <c r="A63" s="10">
+        <v>44304</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>23</v>
@@ -1342,8 +1336,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>42</v>
+      <c r="A64" s="10">
+        <v>44304</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>24</v>
@@ -1353,8 +1347,8 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>42</v>
+      <c r="A65" s="10">
+        <v>44304</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>25</v>
@@ -1364,8 +1358,8 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>42</v>
+      <c r="A66" s="10">
+        <v>44304</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>26</v>
@@ -1375,19 +1369,19 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>42</v>
+      <c r="A67" s="10">
+        <v>44304</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" s="4">
         <v>1821.82</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>42</v>
+      <c r="A68" s="10">
+        <v>44304</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>27</v>
@@ -1397,8 +1391,8 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>42</v>
+      <c r="A69" s="10">
+        <v>44304</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>28</v>
@@ -1408,8 +1402,8 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>42</v>
+      <c r="A70" s="10">
+        <v>44304</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>29</v>
@@ -1419,8 +1413,8 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>42</v>
+      <c r="A71" s="10">
+        <v>44304</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>30</v>
@@ -1430,8 +1424,8 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>42</v>
+      <c r="A72" s="10">
+        <v>44304</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>31</v>
@@ -1441,8 +1435,8 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>42</v>
+      <c r="A73" s="10">
+        <v>44304</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>32</v>
@@ -1452,8 +1446,8 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>42</v>
+      <c r="A74" s="10">
+        <v>44304</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>33</v>
@@ -1463,8 +1457,8 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>42</v>
+      <c r="A75" s="10">
+        <v>44304</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>34</v>
@@ -1474,8 +1468,8 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>42</v>
+      <c r="A76" s="10">
+        <v>44304</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>35</v>
@@ -1485,8 +1479,8 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>42</v>
+      <c r="A77" s="10">
+        <v>44304</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>36</v>
@@ -1496,420 +1490,420 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="10">
+      <c r="A78" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B80" s="10" t="s">
+      <c r="A80" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" s="10" t="s">
+      <c r="A81" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B82" s="10" t="s">
+      <c r="A82" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="8">
         <v>2889.8999999999992</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="10" t="s">
+      <c r="A83" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="8">
         <v>3191.8999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" s="10" t="s">
+      <c r="A84" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="8">
         <v>2774.1800000000012</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" s="10" t="s">
+      <c r="A85" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="8">
         <v>138.24</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" s="10" t="s">
+      <c r="A86" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="8">
         <v>2436.3000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B87" s="10" t="s">
+      <c r="A87" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="8">
         <v>723.9</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88" s="10" t="s">
+      <c r="A88" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="8">
         <v>3917.2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" s="10" t="s">
+      <c r="A89" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="8">
         <v>134.26</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B90" s="10" t="s">
+      <c r="A90" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="10" t="s">
+      <c r="A91" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="8">
         <v>1376.9690000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B92" s="10" t="s">
+      <c r="A92" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="8">
         <v>2081.6</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" s="10" t="s">
+      <c r="A93" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="8">
         <v>3375.9199999999996</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B94" s="10" t="s">
+      <c r="A94" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" s="10" t="s">
+      <c r="A95" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="8">
         <v>1733.55</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B96" s="10" t="s">
+      <c r="A96" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="8">
         <v>83.24</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B97" s="10" t="s">
+      <c r="A97" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="8">
         <v>3389.1749999999997</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B98" s="10" t="s">
+      <c r="A98" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99" s="10" t="s">
+      <c r="A99" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B100" s="10" t="s">
+      <c r="A100" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B101" s="10" t="s">
+      <c r="A101" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B102" s="10" t="s">
+      <c r="A102" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="8">
         <v>1587.1000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B103" s="10" t="s">
+      <c r="A103" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="8">
         <v>3742.9</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B104" s="10" t="s">
+      <c r="A104" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="8">
         <v>12673.752000000006</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C105" s="10">
+      <c r="A105" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C105" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" s="10" t="s">
+      <c r="A106" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B107" s="10" t="s">
+      <c r="A107" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="8">
         <v>43.2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B108" s="10" t="s">
+      <c r="A108" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B109" s="10" t="s">
+      <c r="A109" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="8">
         <v>588.79999999999995</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B111" s="10" t="s">
+      <c r="A111" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="8">
         <v>5274.7</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B112" s="10" t="s">
+      <c r="A112" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B113" s="10" t="s">
+      <c r="A113" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113" s="8">
         <v>1106.7</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B114" s="10" t="s">
+      <c r="A114" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="8">
         <v>5549.5800000000008</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B115" s="10" t="s">
+      <c r="A115" s="11">
+        <v>44303</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C115" s="10">
+      <c r="C115" s="8">
         <v>40</v>
       </c>
     </row>
